--- a/dom/機能一覧.xlsx
+++ b/dom/機能一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://faulkneracademyorg-my.sharepoint.com/personal/g27879_y365_me/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/t-bli/workspace/stsystem/dom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{074A5A08-CB24-42FA-AEF4-38A2F1EA8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{697804CC-3639-D54F-9FB7-CAC3049B61D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3035D2-F11F-3048-A1E0-1422CBCBD422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ユーザー情報登録</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ユーザー情報更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,16 +137,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STUDENT003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生成績ソート</t>
+    <t>STSCORESORT001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STSCORE001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STSCORE002</t>
+  </si>
+  <si>
+    <t>STSCORE003</t>
+  </si>
+  <si>
+    <t>STSCORECSV001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザーログイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー情報一覧取得</t>
+    <rPh sb="4" eb="6">
+      <t>じょうほう</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>１ら</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER005</t>
+  </si>
+  <si>
+    <t>スタッフ情報取得</t>
+    <rPh sb="6" eb="8">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スタッフ情報一覧取得</t>
+    <rPh sb="6" eb="8">
+      <t>１らn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF004</t>
+  </si>
+  <si>
+    <t>STAFF005</t>
+  </si>
+  <si>
+    <t>学生情報取得</t>
+    <rPh sb="4" eb="6">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生情報一覧取得</t>
+    <rPh sb="4" eb="6">
+      <t>１らn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生成績一覧ソート</t>
+    <rPh sb="4" eb="6">
+      <t>いちらn</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>学生成績</t>
+      <t>学生成績一覧</t>
     </r>
     <r>
       <rPr>
@@ -172,25 +245,19 @@
       </rPr>
       <t>出力</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STSCORESORT001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STSCORE001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STSCORE002</t>
-  </si>
-  <si>
-    <t>STSCORE003</t>
-  </si>
-  <si>
-    <t>STSCORECSV001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <rPh sb="4" eb="6">
+      <t>１らn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDENT003</t>
+  </si>
+  <si>
+    <t>STUDENT004</t>
+  </si>
+  <si>
+    <t>STUDENT005</t>
   </si>
 </sst>
 </file>
@@ -610,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -655,7 +722,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -665,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -684,11 +751,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -703,11 +770,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -722,11 +789,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -741,11 +808,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -760,11 +827,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -779,11 +846,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -798,11 +865,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -817,11 +884,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -836,11 +903,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -855,11 +922,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -874,11 +941,11 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -893,11 +960,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -912,11 +979,11 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -931,11 +998,11 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -946,10 +1013,16 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -959,10 +1032,16 @@
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -972,10 +1051,16 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -985,10 +1070,16 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -998,10 +1089,16 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1040,7 +1137,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1062,54 +1159,113 @@
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
     </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="91">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="J18:L18"/>
@@ -1131,15 +1287,36 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
